--- a/NEW HR/DONE/MENDOZA, ARTHUR.xlsx
+++ b/NEW HR/DONE/MENDOZA, ARTHUR.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
   <si>
     <t>PERIOD</t>
   </si>
@@ -196,6 +196,15 @@
   </si>
   <si>
     <t>8/1-31/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>VL(9-0-0)</t>
+  </si>
+  <si>
+    <t>11/3,6-10,13-15/2023</t>
   </si>
 </sst>
 </file>
@@ -577,15 +586,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -598,11 +598,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1299,7 +1308,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1342,7 +1351,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1406,7 +1415,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1466,7 +1475,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1532,7 +1541,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1595,7 +1604,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1693,7 +1702,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1752,7 +1761,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1817,7 +1826,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1860,7 +1869,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1935,7 +1944,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2121,7 +2130,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2187,7 +2196,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2245,7 +2254,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2311,7 +2320,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2367,7 +2376,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2442,7 +2451,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2485,7 +2494,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2551,7 +2560,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2607,7 +2616,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2705,7 +2714,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2768,7 +2777,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2834,7 +2843,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K115" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K116" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
@@ -3242,12 +3251,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K115"/>
+  <dimension ref="A2:K116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <pane ySplit="3900" topLeftCell="A51" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
+      <selection pane="bottomLeft" activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3277,14 +3286,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3295,14 +3304,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3315,14 +3324,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3348,18 +3357,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3406,7 +3415,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3416,7 +3425,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4494,15 +4503,17 @@
       <c r="B63" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C63" s="13"/>
+      <c r="C63" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D63" s="39">
         <v>21</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G63" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
@@ -4512,15 +4523,19 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
+      <c r="A64" s="40">
+        <v>45139</v>
+      </c>
       <c r="B64" s="20"/>
-      <c r="C64" s="13"/>
+      <c r="C64" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D64" s="39"/>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G64" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H64" s="39"/>
       <c r="I64" s="9"/>
@@ -4528,15 +4543,19 @@
       <c r="K64" s="20"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
+      <c r="A65" s="40">
+        <v>45170</v>
+      </c>
       <c r="B65" s="20"/>
-      <c r="C65" s="13"/>
+      <c r="C65" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D65" s="39"/>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G65" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H65" s="39"/>
       <c r="I65" s="9"/>
@@ -4544,15 +4563,19 @@
       <c r="K65" s="20"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
+      <c r="A66" s="40">
+        <v>45200</v>
+      </c>
       <c r="B66" s="20"/>
-      <c r="C66" s="13"/>
+      <c r="C66" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D66" s="39"/>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G66" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H66" s="39"/>
       <c r="I66" s="9"/>
@@ -4560,10 +4583,16 @@
       <c r="K66" s="20"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
-      <c r="B67" s="20"/>
+      <c r="A67" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C67" s="13"/>
-      <c r="D67" s="39"/>
+      <c r="D67" s="39">
+        <v>9</v>
+      </c>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
       <c r="G67" s="13" t="str">
@@ -4573,10 +4602,14 @@
       <c r="H67" s="39"/>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="20"/>
+      <c r="K67" s="20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
+      <c r="A68" s="40">
+        <v>45261</v>
+      </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
       <c r="D68" s="39"/>
@@ -4592,7 +4625,9 @@
       <c r="K68" s="20"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
+      <c r="A69" s="48" t="s">
+        <v>53</v>
+      </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
       <c r="D69" s="39"/>
@@ -4608,7 +4643,9 @@
       <c r="K69" s="20"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
+      <c r="A70" s="40">
+        <v>45292</v>
+      </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
       <c r="D70" s="39"/>
@@ -4624,7 +4661,9 @@
       <c r="K70" s="20"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
+      <c r="A71" s="40">
+        <v>45323</v>
+      </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
       <c r="D71" s="39"/>
@@ -4640,7 +4679,9 @@
       <c r="K71" s="20"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
+      <c r="A72" s="40">
+        <v>45352</v>
+      </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
       <c r="D72" s="39"/>
@@ -4656,7 +4697,9 @@
       <c r="K72" s="20"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="40"/>
+      <c r="A73" s="40">
+        <v>45383</v>
+      </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
       <c r="D73" s="39"/>
@@ -4672,7 +4715,9 @@
       <c r="K73" s="20"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
+      <c r="A74" s="40">
+        <v>45413</v>
+      </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
       <c r="D74" s="39"/>
@@ -4688,7 +4733,9 @@
       <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
+      <c r="A75" s="40">
+        <v>45444</v>
+      </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
@@ -5328,34 +5375,50 @@
       <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="41"/>
-      <c r="B115" s="15"/>
-      <c r="C115" s="42"/>
-      <c r="D115" s="43"/>
+      <c r="A115" s="40"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="39"/>
       <c r="E115" s="9"/>
-      <c r="F115" s="15"/>
-      <c r="G115" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H115" s="43"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H115" s="39"/>
       <c r="I115" s="9"/>
-      <c r="J115" s="12"/>
-      <c r="K115" s="15"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="20"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="41"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="42"/>
+      <c r="D116" s="43"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H116" s="43"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5391,7 +5454,7 @@
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="5535" topLeftCell="A7" activePane="bottomLeft"/>
+      <pane ySplit="5535" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
       <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
@@ -5424,14 +5487,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5445,17 +5508,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56" t="str">
+      <c r="F3" s="53" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5469,17 +5532,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50" t="str">
+      <c r="F4" s="54" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="50"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5505,18 +5568,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
